--- a/TestList/7.0FujianConstructionStudy.xlsx
+++ b/TestList/7.0FujianConstructionStudy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24600" windowHeight="10560"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>序号
 （id）</t>
@@ -126,46 +126,22 @@
     <t>waitlogin</t>
   </si>
   <si>
-    <t>enterstudentclass</t>
-  </si>
-  <si>
-    <t>//a[contains(@class,'btn-b-b w196')]</t>
-  </si>
-  <si>
-    <t>clickclass</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div[2]/div/div[1]/ul/li[2]/a</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>//a[contains(@class,'ng-binding ng-scope current')]</t>
-  </si>
-  <si>
     <t>enterclass</t>
   </si>
   <si>
-    <t>http://fjjsrckjjy.59iedu.com/center/myRealClass/4028fba0679bdcde0167fcd98e492bc9</t>
+    <t>https://fjjsrckjjy.59iedu.com/center/myRealClass/4028fba0679bdcde0167f420871e5bb8</t>
   </si>
   <si>
     <t>click study already</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div/div[2]/div[4]/div[2]/div[1]/a[2]</t>
-  </si>
-  <si>
-    <t>click play button</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div[2]/div[4]/div[2]/div[2]/table/tbody/tr[1]/td[6]/a</t>
+    <t>//div[contains(@class,'sub-tab-tit mt5')]/a[2]</t>
   </si>
   <si>
     <t>play</t>
   </si>
   <si>
-    <t>http://fjjsrckjjy.59iedu.com/play/#/learn/4028fba0679bdcde0167fcd98e492bc9/4028fbb767cafd2d0167e3233c19243d/courseware?exts=%7B%22learnType%22:%22TRAINING_CLASS%22%7D&amp;unitName=</t>
+    <t>https://fjjsrckjjy.59iedu.com/play/#/learn/4028fba0679bdcde0167f420871e5bb8/4028fbab67cafbcc0167e42c2ab9030f/courseware?exts=%7B%22learnType%22:%22TRAINING_CLASS%22%7D&amp;unitName=</t>
   </si>
   <si>
     <t>ckick play</t>
@@ -182,10 +158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -211,22 +187,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -234,39 +232,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,54 +258,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,19 +325,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,163 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,6 +516,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -587,26 +572,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,17 +608,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,10 +622,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,131 +634,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,10 +1121,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1390,12 +1366,12 @@
         <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1424,16 +1400,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
@@ -1444,18 +1420,18 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1464,116 +1440,36 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" t="s">
-        <v>43</v>
+      <c r="E16" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30:D31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D16 D17:D25">
+      <formula1>"URL,Xpath"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C28">
+      <formula1>"访问,输入,点击,等待"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26:D27">
       <formula1>"URL、Xpath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D20 D21:D29">
-      <formula1>"URL,Xpath"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C32">
-      <formula1>"访问,输入,点击,等待"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:D65528">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D65524">
       <formula1>"xpath,name,id,css,text"</formula1>
     </dataValidation>
   </dataValidations>
